--- a/30_monomar.xlsx
+++ b/30_monomar.xlsx
@@ -89,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -99,6 +99,7 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +417,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="G11:I27"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,36 +434,40 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>2.9845E-8</v>
-      </c>
-      <c r="B2" s="4">
-        <v>3.62E-8</v>
+      <c r="A2" s="5">
+        <v>1.7599999999999999E-7</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1.09E-7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2.6983999999999999E-8</v>
+        <v>2.8781999999999999E-7</v>
       </c>
       <c r="B3" s="2">
-        <v>1.1900000000000001E-8</v>
+        <v>4.2E-7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>2.8781999999999999E-7</v>
+        <v>4.1500000000000001E-8</v>
       </c>
       <c r="B4" s="2">
-        <v>4.2E-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+        <v>1.5399999999999999E-8</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>2.9845E-8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.62E-8</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G11" s="1"/>
